--- a/DataTable/FarmerTable.xlsx
+++ b/DataTable/FarmerTable.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FDAA8D-2005-0C45-B61F-A0F460B90CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDEAD60-B32D-044D-B62C-57544F179354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="-18460" windowWidth="28300" windowHeight="17440" xr2:uid="{7EF9CFC2-BCD5-964D-8D33-B289F6ACD1DC}"/>
+    <workbookView xWindow="5520" yWindow="-18460" windowWidth="28300" windowHeight="17440" xr2:uid="{7EF9CFC2-BCD5-964D-8D33-B289F6ACD1DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FarmerTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="FarmerTable" localSheetId="0">Sheet1!$A$2:$B$4</definedName>
+    <definedName name="FarmerTable" localSheetId="0">FarmerTable!$A$2:$B$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -247,9 +247,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -287,7 +287,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -393,7 +393,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -535,7 +535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -546,7 +546,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/DataTable/FarmerTable.xlsx
+++ b/DataTable/FarmerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\ProjectF\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDEAD60-B32D-044D-B62C-57544F179354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D3C26F-2EE2-4B83-9D53-37F73C20038E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="-18460" windowWidth="28300" windowHeight="17440" xr2:uid="{7EF9CFC2-BCD5-964D-8D33-B289F6ACD1DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EF9CFC2-BCD5-964D-8D33-B289F6ACD1DC}"/>
   </bookViews>
   <sheets>
     <sheet name="FarmerTable" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -66,13 +66,25 @@
   </si>
   <si>
     <t>farmer_name_0</t>
+  </si>
+  <si>
+    <t>rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,40 +555,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D7D4E3-B342-DD44-8AF7-A000D70DEC11}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" thickBot="1"/>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19" thickBot="1">
+    <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19" thickBot="1">
+    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/DataTable/FarmerTable.xlsx
+++ b/DataTable/FarmerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\ProjectF\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D3C26F-2EE2-4B83-9D53-37F73C20038E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D511CE3-41A0-46FC-8703-B3F795D2BCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EF9CFC2-BCD5-964D-8D33-B289F6ACD1DC}"/>
   </bookViews>
@@ -72,11 +72,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Erarity</t>
+    <t>Common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Common</t>
+    <t>ERarity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +558,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -585,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>3</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>

--- a/DataTable/FarmerTable.xlsx
+++ b/DataTable/FarmerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\ProjectF\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\ProjectF\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D511CE3-41A0-46FC-8703-B3F795D2BCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69D0C41-84C6-4B11-9CD0-6ED5F6BB8645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7EF9CFC2-BCD5-964D-8D33-B289F6ACD1DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{7EF9CFC2-BCD5-964D-8D33-B289F6ACD1DC}"/>
   </bookViews>
   <sheets>
     <sheet name="FarmerTable" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -78,6 +78,78 @@
   <si>
     <t>ERarity</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legendary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mythic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>farmer_name_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>farmer_name_2</t>
+  </si>
+  <si>
+    <t>farmer_name_3</t>
+  </si>
+  <si>
+    <t>farmer_name_4</t>
+  </si>
+  <si>
+    <t>farmer_name_5</t>
+  </si>
+  <si>
+    <t>farmer_name_6</t>
+  </si>
+  <si>
+    <t>farmer_name_7</t>
+  </si>
+  <si>
+    <t>farmer_name_8</t>
+  </si>
+  <si>
+    <t>farmer_name_9</t>
+  </si>
+  <si>
+    <t>farmer_name_10</t>
+  </si>
+  <si>
+    <t>farmer_name_11</t>
+  </si>
+  <si>
+    <t>farmer_name_12</t>
+  </si>
+  <si>
+    <t>farmer_name_13</t>
+  </si>
+  <si>
+    <t>farmer_name_14</t>
+  </si>
+  <si>
+    <t>farmer_name_15</t>
+  </si>
+  <si>
+    <t>farmer_name_16</t>
+  </si>
+  <si>
+    <t>farmer_name_17</t>
   </si>
 </sst>
 </file>
@@ -115,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -154,7 +226,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -163,22 +235,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -190,10 +247,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -203,10 +260,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -219,23 +276,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,43 +612,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D7D4E3-B342-DD44-8AF7-A000D70DEC11}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.765625" customWidth="1"/>
+    <col min="2" max="2" width="16.3828125" customWidth="1"/>
+    <col min="3" max="3" width="19.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -600,6 +657,193 @@
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
